--- a/东奥会计专业/202101/新建文件夹/速率供应链银行日记账-2021年 .xlsx
+++ b/东奥会计专业/202101/新建文件夹/速率供应链银行日记账-2021年 .xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">巢湖集散点!$A$3:$O$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">合肥巢湖网点!$A$3:$O$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总表!$B$2:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">中行2231!$A$3:$N$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">中行2231!$A$3:$N$126</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
   <si>
     <t>合肥速率供应链管理有限公司</t>
   </si>
@@ -480,6 +480,93 @@
   </si>
   <si>
     <t>槐林亚父路工装430+发电机款700</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>时欣</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节福利费992.55+货拉拉费用332.10+电信费201.10+更换仓库大门2000</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车城提现</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚父路充值至其JMS账户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付亚父路政策返款</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付民腾提现款并扣收罚款</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子面单折扣（1.25-1.31）</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>春节不打烊派费</t>
+  </si>
+  <si>
+    <t>1月面单政策余款</t>
+  </si>
+  <si>
+    <t>派费截留</t>
+  </si>
+  <si>
+    <t>1月份C组加盟商质量考核排名第3奖励</t>
+  </si>
+  <si>
+    <t>电子面单折扣2.8-2.21</t>
+  </si>
+  <si>
+    <t>电子面单折扣2.22-2.24</t>
+  </si>
+  <si>
+    <t>电子面单折扣2.1-2.7</t>
+  </si>
+  <si>
+    <t>仲裁延误罚款</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月出港支线任务单晚点罚款</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心应收装卸费</t>
+  </si>
+  <si>
+    <t>中心应付派费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效完结工单罚款</t>
+  </si>
+  <si>
+    <t>仲裁遗失罚款</t>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥极致供应链管理有限公司</t>
+  </si>
+  <si>
+    <t>操作费</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1190,21 @@
     <cellStyle name="千位分隔[0] 13" xfId="37"/>
     <cellStyle name="一般_Sheet1" xfId="38"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79989013336588644"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1966,7 +2067,7 @@
       </c>
       <c r="D3" s="51">
         <f>中行2231!H4</f>
-        <v>8458.4599999999627</v>
+        <v>79639.639999999956</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>10</v>
@@ -2133,10 +2234,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N576"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2148,6 +2250,7 @@
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2181,7 +2284,7 @@
       </c>
       <c r="H2" s="12">
         <f>SUM($D:$D)</f>
-        <v>435983.49</v>
+        <v>641027.34</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>17</v>
@@ -2212,7 +2315,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="17">
         <f>SUM($E:$E)</f>
-        <v>430324.85000000003</v>
+        <v>564187.52</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>23</v>
@@ -2221,7 +2324,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="19">
         <v>44197</v>
       </c>
@@ -2234,7 +2337,7 @@
       </c>
       <c r="H4" s="17">
         <f>H2-H3+F4</f>
-        <v>8458.4599999999627</v>
+        <v>79639.639999999956</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>24</v>
@@ -2243,7 +2346,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="19">
         <v>44202</v>
       </c>
@@ -2277,7 +2380,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="22">
         <v>44202</v>
       </c>
@@ -2300,7 +2403,7 @@
       <c r="I6" s="30"/>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="22">
         <v>44202</v>
       </c>
@@ -2323,7 +2426,7 @@
       <c r="I7" s="30"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="22">
         <v>44204</v>
       </c>
@@ -2348,7 +2451,7 @@
       <c r="I8" s="30"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" s="22">
         <v>44207</v>
       </c>
@@ -2373,7 +2476,7 @@
       <c r="I9" s="30"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="22">
         <v>44207</v>
       </c>
@@ -2396,7 +2499,7 @@
       <c r="I10" s="30"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" s="22">
         <v>44207</v>
       </c>
@@ -2424,7 +2527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="22">
         <v>44207</v>
       </c>
@@ -2450,7 +2553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="22">
         <v>44208</v>
       </c>
@@ -2478,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="22">
         <v>44208</v>
       </c>
@@ -2504,7 +2607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="22">
         <v>44209</v>
       </c>
@@ -2532,7 +2635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="22">
         <v>44214</v>
       </c>
@@ -2560,7 +2663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" s="22">
         <v>44214</v>
       </c>
@@ -2588,7 +2691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" s="22">
         <v>44214</v>
       </c>
@@ -2614,7 +2717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" s="22">
         <v>44214</v>
       </c>
@@ -2649,7 +2752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="22">
         <v>44214</v>
       </c>
@@ -2677,7 +2780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" s="22">
         <v>44214</v>
       </c>
@@ -2703,7 +2806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" s="22">
         <v>44215</v>
       </c>
@@ -2731,7 +2834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" s="22">
         <v>44215</v>
       </c>
@@ -2757,7 +2860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" s="22">
         <v>44218</v>
       </c>
@@ -2785,7 +2888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" s="22">
         <v>44219</v>
       </c>
@@ -2800,7 +2903,7 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="20">
-        <f t="shared" ref="F25:F87" si="1">F24+D25-E25</f>
+        <f t="shared" ref="F25:F88" si="1">F24+D25-E25</f>
         <v>88738.359999999986</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2813,7 +2916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="22">
         <v>44221</v>
       </c>
@@ -2848,7 +2951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" s="22">
         <v>44221</v>
       </c>
@@ -2874,7 +2977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" s="22">
         <v>44221</v>
       </c>
@@ -2902,7 +3005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" s="22">
         <v>44221</v>
       </c>
@@ -2928,7 +3031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" s="22">
         <v>44221</v>
       </c>
@@ -2956,7 +3059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" s="22">
         <v>44221</v>
       </c>
@@ -2984,7 +3087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" s="22">
         <v>44221</v>
       </c>
@@ -3010,7 +3113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="22">
         <v>44223</v>
       </c>
@@ -3038,7 +3141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="22">
         <v>44223</v>
       </c>
@@ -3061,7 +3164,7 @@
       <c r="I34" s="30"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35" s="22">
         <v>44223</v>
       </c>
@@ -3111,6 +3214,9 @@
         <f t="shared" si="1"/>
         <v>2340.1899999999887</v>
       </c>
+      <c r="G36" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H36" s="17"/>
       <c r="I36" s="30"/>
       <c r="K36" s="31"/>
@@ -3133,6 +3239,9 @@
         <f t="shared" si="1"/>
         <v>52340.189999999988</v>
       </c>
+      <c r="G37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="30"/>
       <c r="K37" s="31"/>
@@ -3153,6 +3262,9 @@
         <f t="shared" si="1"/>
         <v>52050.94999999999</v>
       </c>
+      <c r="G38" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:14">
@@ -3173,6 +3285,9 @@
         <f t="shared" si="1"/>
         <v>102050.94999999998</v>
       </c>
+      <c r="G39" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:14">
@@ -3193,6 +3308,9 @@
         <f t="shared" si="1"/>
         <v>152050.94999999998</v>
       </c>
+      <c r="G40" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:14">
@@ -3213,6 +3331,9 @@
         <f t="shared" si="1"/>
         <v>187050.94999999998</v>
       </c>
+      <c r="G41" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:14">
@@ -3232,6 +3353,9 @@
       <c r="F42" s="20">
         <f t="shared" si="1"/>
         <v>137050.94999999998</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K42" s="31"/>
     </row>
@@ -3251,6 +3375,9 @@
         <f t="shared" si="1"/>
         <v>137040.94999999998</v>
       </c>
+      <c r="G43" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K43" s="31"/>
     </row>
     <row r="44" spans="1:14">
@@ -3270,6 +3397,9 @@
       <c r="F44" s="20">
         <f t="shared" si="1"/>
         <v>102040.94999999998</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K44" s="31"/>
     </row>
@@ -3289,6 +3419,9 @@
         <f t="shared" si="1"/>
         <v>102030.94999999998</v>
       </c>
+      <c r="G45" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:14">
@@ -3308,6 +3441,9 @@
       <c r="F46" s="20">
         <f t="shared" si="1"/>
         <v>52030.949999999983</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K46" s="31"/>
     </row>
@@ -3327,6 +3463,9 @@
         <f t="shared" si="1"/>
         <v>52020.949999999983</v>
       </c>
+      <c r="G47" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K47" s="31"/>
     </row>
     <row r="48" spans="1:14">
@@ -3347,6 +3486,9 @@
         <f t="shared" si="1"/>
         <v>72020.949999999983</v>
       </c>
+      <c r="G48" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K48" s="31"/>
     </row>
     <row r="49" spans="1:11">
@@ -3367,6 +3509,9 @@
         <f t="shared" si="1"/>
         <v>67779.549999999988</v>
       </c>
+      <c r="G49" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K49" s="31"/>
     </row>
     <row r="50" spans="1:11">
@@ -3387,6 +3532,9 @@
         <f t="shared" si="1"/>
         <v>64079.549999999988</v>
       </c>
+      <c r="G50" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K50" s="31"/>
     </row>
     <row r="51" spans="1:11">
@@ -3406,6 +3554,9 @@
       <c r="F51" s="20">
         <f t="shared" si="1"/>
         <v>61983.459999999992</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K51" s="31"/>
     </row>
@@ -3425,6 +3576,9 @@
         <f t="shared" si="1"/>
         <v>61978.459999999992</v>
       </c>
+      <c r="G52" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K52" s="31"/>
     </row>
     <row r="53" spans="1:11">
@@ -3444,6 +3598,9 @@
       <c r="F53" s="20">
         <f t="shared" si="1"/>
         <v>36378.459999999992</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="K53" s="31"/>
     </row>
@@ -3463,6 +3620,9 @@
         <f t="shared" si="1"/>
         <v>36368.459999999992</v>
       </c>
+      <c r="G54" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K54" s="31"/>
     </row>
     <row r="55" spans="1:11">
@@ -3482,6 +3642,18 @@
       <c r="F55" s="20">
         <f t="shared" si="1"/>
         <v>8468.4599999999919</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <v>7900</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55">
+        <v>20000</v>
       </c>
       <c r="K55" s="31"/>
     </row>
@@ -3501,196 +3673,353 @@
         <f t="shared" si="1"/>
         <v>8458.4599999999919</v>
       </c>
+      <c r="G56" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K56" s="31"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="22"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="22">
+        <v>44250</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="25">
+        <v>10000</v>
+      </c>
       <c r="E57" s="26"/>
       <c r="F57" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>18458.459999999992</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="K57" s="31"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="22"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
+      <c r="A58" s="22">
+        <v>44251</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="E58" s="26">
+        <v>3525.75</v>
+      </c>
       <c r="F58" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>14932.709999999992</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K58" s="31"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="A59" s="22">
+        <v>44251</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="E59" s="26">
+        <v>10000</v>
+      </c>
       <c r="F59" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>4932.7099999999919</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="22">
+        <v>44251</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C60" s="24"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="E60" s="26">
+        <v>5</v>
+      </c>
       <c r="F60" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>4927.7099999999919</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K60" s="31"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="22">
+        <v>44251</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="25">
+        <v>50000</v>
+      </c>
       <c r="E61" s="26"/>
       <c r="F61" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>54927.709999999992</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="K61" s="31"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="22"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="25">
+        <v>145043.85</v>
+      </c>
       <c r="E62" s="26"/>
       <c r="F62" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+        <v>199971.56</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K62" s="31"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="22"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
+      <c r="E63" s="26">
+        <v>47733.5</v>
+      </c>
       <c r="F63" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="K63" s="31"/>
+        <v>152238.06</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="66"/>
+      <c r="I63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="22"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C64" s="24"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
+      <c r="E64" s="26">
+        <v>10</v>
+      </c>
       <c r="F64" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>152228.06</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H64" s="66"/>
       <c r="I64" s="65"/>
       <c r="K64" s="31"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="22"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
+      <c r="E65" s="26">
+        <v>470</v>
+      </c>
       <c r="F65" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>151758.06</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H65" s="66"/>
       <c r="I65" s="65"/>
       <c r="K65" s="31"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="22"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C66" s="24"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
+      <c r="E66" s="26">
+        <v>5</v>
+      </c>
       <c r="F66" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="H66" s="66"/>
-      <c r="I66" s="65"/>
+        <v>151753.06</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="K66" s="31"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="22"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
+      <c r="A67" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
+      <c r="E67" s="26">
+        <v>71300.7</v>
+      </c>
       <c r="F67" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
+        <v>80452.36</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="31"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="22"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="22">
+        <v>44253</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C68" s="24"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
+      <c r="E68" s="26">
+        <v>10</v>
+      </c>
       <c r="F68" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="H68" s="66"/>
-      <c r="I68" s="65"/>
+        <v>80442.36</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="31"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="22"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
+      <c r="A69" s="22">
+        <v>44255</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
+      <c r="E69" s="26">
+        <v>188.52</v>
+      </c>
       <c r="F69" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
+        <v>80253.84</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="66"/>
+      <c r="I69" s="65"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="22"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="22">
+        <v>44255</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C70" s="24"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
+      <c r="E70" s="26">
+        <v>5</v>
+      </c>
       <c r="F70" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>80248.84</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="22"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="22">
+        <v>44255</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="C71" s="24"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
+      <c r="E71" s="26">
+        <v>609.20000000000005</v>
+      </c>
       <c r="F71" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>79639.64</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="22"/>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -3698,10 +4027,10 @@
       <c r="E72" s="26"/>
       <c r="F72" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="22"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -3709,10 +4038,10 @@
       <c r="E73" s="26"/>
       <c r="F73" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="22"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3720,10 +4049,10 @@
       <c r="E74" s="26"/>
       <c r="F74" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="22"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3731,10 +4060,10 @@
       <c r="E75" s="26"/>
       <c r="F75" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="22"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3742,10 +4071,10 @@
       <c r="E76" s="26"/>
       <c r="F76" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="22"/>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3753,10 +4082,10 @@
       <c r="E77" s="26"/>
       <c r="F77" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="22"/>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3764,10 +4093,10 @@
       <c r="E78" s="26"/>
       <c r="F78" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="22"/>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3775,10 +4104,10 @@
       <c r="E79" s="26"/>
       <c r="F79" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="22"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -3786,11 +4115,10 @@
       <c r="E80" s="26"/>
       <c r="F80" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="1:11">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="22"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -3798,13 +4126,11 @@
       <c r="E81" s="26"/>
       <c r="F81" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="G81" s="7"/>
+        <v>79639.64</v>
+      </c>
       <c r="H81" s="41"/>
-      <c r="K81" s="31"/>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="22"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
@@ -3812,12 +4138,13 @@
       <c r="E82" s="26"/>
       <c r="F82" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G82" s="7"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="H82" s="41"/>
+      <c r="K82" s="31"/>
+    </row>
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="22"/>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
@@ -3825,12 +4152,12 @@
       <c r="E83" s="26"/>
       <c r="F83" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="22"/>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -3838,12 +4165,12 @@
       <c r="E84" s="26"/>
       <c r="F84" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="22"/>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -3851,12 +4178,12 @@
       <c r="E85" s="26"/>
       <c r="F85" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="22"/>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3864,12 +4191,12 @@
       <c r="E86" s="26"/>
       <c r="F86" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="22"/>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -3877,38 +4204,39 @@
       <c r="E87" s="26"/>
       <c r="F87" s="20">
         <f t="shared" si="1"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="3"/>
-      <c r="K87" s="31"/>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="22"/>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="25"/>
       <c r="E88" s="26"/>
       <c r="F88" s="20">
-        <f t="shared" ref="F88:F94" si="2">F87+D88-E88</f>
-        <v>8458.4599999999919</v>
+        <f t="shared" si="1"/>
+        <v>79639.64</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="K88" s="31"/>
+    </row>
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="22"/>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="D89" s="25"/>
       <c r="E89" s="26"/>
       <c r="F89" s="20">
-        <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <f t="shared" ref="F89:F95" si="2">F88+D89-E89</f>
+        <v>79639.64</v>
       </c>
       <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="22"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3916,11 +4244,11 @@
       <c r="E90" s="26"/>
       <c r="F90" s="20">
         <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="22"/>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3928,11 +4256,11 @@
       <c r="E91" s="26"/>
       <c r="F91" s="20">
         <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1">
       <c r="A92" s="22"/>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3940,13 +4268,11 @@
       <c r="E92" s="26"/>
       <c r="F92" s="20">
         <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G92" s="7"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="66"/>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="22"/>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3954,11 +4280,13 @@
       <c r="E93" s="26"/>
       <c r="F93" s="20">
         <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="I93" s="65"/>
+      <c r="J93" s="66"/>
+    </row>
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="22"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3966,34 +4294,35 @@
       <c r="E94" s="26"/>
       <c r="F94" s="20">
         <f t="shared" si="2"/>
-        <v>8458.4599999999919</v>
+        <v>79639.64</v>
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="22"/>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="25"/>
       <c r="E95" s="26"/>
       <c r="F95" s="20">
-        <f t="shared" ref="F95:F97" si="3">F94+D95-E95</f>
-        <v>8458.4599999999919</v>
+        <f t="shared" si="2"/>
+        <v>79639.64</v>
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="22"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
       <c r="D96" s="25"/>
       <c r="E96" s="26"/>
       <c r="F96" s="20">
-        <f t="shared" si="3"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <f t="shared" ref="F96:F98" si="3">F95+D96-E96</f>
+        <v>79639.64</v>
+      </c>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="22"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -4001,36 +4330,35 @@
       <c r="E97" s="26"/>
       <c r="F97" s="20">
         <f t="shared" si="3"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="G97" s="7"/>
-    </row>
-    <row r="98" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="22"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="25"/>
       <c r="E98" s="26"/>
       <c r="F98" s="20">
-        <f t="shared" ref="F98:F108" si="4">F97+D98-E98</f>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="H98" s="66"/>
-      <c r="I98" s="65"/>
-    </row>
-    <row r="99" spans="1:10">
+        <f t="shared" si="3"/>
+        <v>79639.64</v>
+      </c>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" hidden="1">
       <c r="A99" s="22"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="25"/>
       <c r="E99" s="26"/>
       <c r="F99" s="20">
-        <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:10">
+        <f t="shared" ref="F99:F109" si="4">F98+D99-E99</f>
+        <v>79639.64</v>
+      </c>
+      <c r="H99" s="66"/>
+      <c r="I99" s="65"/>
+    </row>
+    <row r="100" spans="1:10" hidden="1">
       <c r="A100" s="22"/>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -4038,12 +4366,11 @@
       <c r="E100" s="26"/>
       <c r="F100" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="I100" s="65"/>
-      <c r="J100" s="66"/>
-    </row>
-    <row r="101" spans="1:10">
+        <v>79639.64</v>
+      </c>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" hidden="1">
       <c r="A101" s="22"/>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -4051,11 +4378,12 @@
       <c r="E101" s="26"/>
       <c r="F101" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:10">
+        <v>79639.64</v>
+      </c>
+      <c r="I101" s="65"/>
+      <c r="J101" s="66"/>
+    </row>
+    <row r="102" spans="1:10" hidden="1">
       <c r="A102" s="22"/>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
@@ -4063,10 +4391,11 @@
       <c r="E102" s="26"/>
       <c r="F102" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>79639.64</v>
+      </c>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" hidden="1">
       <c r="A103" s="22"/>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
@@ -4074,10 +4403,10 @@
       <c r="E103" s="26"/>
       <c r="F103" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1">
       <c r="A104" s="22"/>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -4085,11 +4414,10 @@
       <c r="E104" s="26"/>
       <c r="F104" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1">
       <c r="A105" s="22"/>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4097,10 +4425,11 @@
       <c r="E105" s="26"/>
       <c r="F105" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>79639.64</v>
+      </c>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" hidden="1">
       <c r="A106" s="22"/>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4108,10 +4437,10 @@
       <c r="E106" s="26"/>
       <c r="F106" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1">
       <c r="A107" s="22"/>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4119,10 +4448,10 @@
       <c r="E107" s="26"/>
       <c r="F107" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1">
       <c r="A108" s="22"/>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
@@ -4130,32 +4459,32 @@
       <c r="E108" s="26"/>
       <c r="F108" s="20">
         <f t="shared" si="4"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1">
       <c r="A109" s="22"/>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="25"/>
       <c r="E109" s="26"/>
       <c r="F109" s="20">
-        <f t="shared" ref="F109:F117" si="5">F108+D109-E109</f>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <f t="shared" si="4"/>
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="22"/>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
       <c r="D110" s="25"/>
       <c r="E110" s="26"/>
       <c r="F110" s="20">
-        <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <f t="shared" ref="F110:F118" si="5">F109+D110-E110</f>
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="22"/>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -4163,10 +4492,10 @@
       <c r="E111" s="26"/>
       <c r="F111" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="22"/>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
@@ -4174,10 +4503,10 @@
       <c r="E112" s="26"/>
       <c r="F112" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="22"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -4185,10 +4514,10 @@
       <c r="E113" s="26"/>
       <c r="F113" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="22"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
@@ -4196,10 +4525,10 @@
       <c r="E114" s="26"/>
       <c r="F114" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="22"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -4207,10 +4536,10 @@
       <c r="E115" s="26"/>
       <c r="F115" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="22"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -4218,10 +4547,10 @@
       <c r="E116" s="26"/>
       <c r="F116" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="22"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
@@ -4229,32 +4558,32 @@
       <c r="E117" s="26"/>
       <c r="F117" s="20">
         <f t="shared" si="5"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="22"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="25"/>
       <c r="E118" s="26"/>
       <c r="F118" s="20">
-        <f t="shared" ref="F118:F125" si="6">F117+D118-E118</f>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <f t="shared" si="5"/>
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="22"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="25"/>
       <c r="E119" s="26"/>
       <c r="F119" s="20">
-        <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <f t="shared" ref="F119:F126" si="6">F118+D119-E119</f>
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="22"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4262,10 +4591,10 @@
       <c r="E120" s="26"/>
       <c r="F120" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="22"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4273,10 +4602,10 @@
       <c r="E121" s="26"/>
       <c r="F121" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="22"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4284,10 +4613,10 @@
       <c r="E122" s="26"/>
       <c r="F122" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="22"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4295,10 +4624,10 @@
       <c r="E123" s="26"/>
       <c r="F123" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="22"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4306,10 +4635,10 @@
       <c r="E124" s="26"/>
       <c r="F124" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="22"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4317,16 +4646,19 @@
       <c r="E125" s="26"/>
       <c r="F125" s="20">
         <f t="shared" si="6"/>
-        <v>8458.4599999999919</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>79639.64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="22"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="25"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="20"/>
+      <c r="F126" s="20">
+        <f t="shared" si="6"/>
+        <v>79639.64</v>
+      </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="22"/>
@@ -4506,7 +4838,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="22"/>
-      <c r="B149" s="33"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="25"/>
       <c r="E149" s="26"/>
@@ -4514,7 +4846,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="22"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="24"/>
       <c r="D150" s="25"/>
       <c r="E150" s="26"/>
@@ -4634,7 +4966,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="22"/>
-      <c r="B165" s="33"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="24"/>
       <c r="D165" s="25"/>
       <c r="E165" s="26"/>
@@ -4642,7 +4974,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="22"/>
-      <c r="B166" s="24"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="24"/>
       <c r="D166" s="25"/>
       <c r="E166" s="26"/>
@@ -5063,7 +5395,6 @@
       <c r="D218" s="25"/>
       <c r="E218" s="26"/>
       <c r="F218" s="20"/>
-      <c r="J218" s="6"/>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="22"/>
@@ -5072,6 +5403,7 @@
       <c r="D219" s="25"/>
       <c r="E219" s="26"/>
       <c r="F219" s="20"/>
+      <c r="J219" s="6"/>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="22"/>
@@ -5195,7 +5527,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="22"/>
-      <c r="B235" s="34"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="24"/>
       <c r="D235" s="25"/>
       <c r="E235" s="26"/>
@@ -5203,7 +5535,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="22"/>
-      <c r="B236" s="24"/>
+      <c r="B236" s="34"/>
       <c r="C236" s="24"/>
       <c r="D236" s="25"/>
       <c r="E236" s="26"/>
@@ -5408,7 +5740,6 @@
       <c r="D261" s="25"/>
       <c r="E261" s="26"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="35"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="22"/>
@@ -5417,6 +5748,7 @@
       <c r="D262" s="25"/>
       <c r="E262" s="26"/>
       <c r="F262" s="20"/>
+      <c r="G262" s="35"/>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="22"/>
@@ -5857,7 +6189,6 @@
       <c r="D317" s="25"/>
       <c r="E317" s="26"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="35"/>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="22"/>
@@ -5866,6 +6197,7 @@
       <c r="D318" s="25"/>
       <c r="E318" s="26"/>
       <c r="F318" s="20"/>
+      <c r="G318" s="35"/>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="22"/>
@@ -6063,7 +6395,7 @@
       <c r="A343" s="22"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
-      <c r="D343" s="36"/>
+      <c r="D343" s="25"/>
       <c r="E343" s="26"/>
       <c r="F343" s="20"/>
     </row>
@@ -6071,7 +6403,7 @@
       <c r="A344" s="22"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
-      <c r="D344" s="25"/>
+      <c r="D344" s="36"/>
       <c r="E344" s="26"/>
       <c r="F344" s="20"/>
     </row>
@@ -6220,19 +6552,19 @@
       <c r="F362" s="20"/>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="37"/>
-      <c r="B363" s="38"/>
-      <c r="C363" s="39"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="24"/>
+      <c r="C363" s="24"/>
       <c r="D363" s="25"/>
-      <c r="E363" s="40"/>
+      <c r="E363" s="26"/>
       <c r="F363" s="20"/>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="22"/>
-      <c r="B364" s="24"/>
-      <c r="C364" s="24"/>
+      <c r="A364" s="37"/>
+      <c r="B364" s="38"/>
+      <c r="C364" s="39"/>
       <c r="D364" s="25"/>
-      <c r="E364" s="26"/>
+      <c r="E364" s="40"/>
       <c r="F364" s="20"/>
     </row>
     <row r="365" spans="1:6">
@@ -6474,7 +6806,6 @@
       <c r="D394" s="25"/>
       <c r="E394" s="26"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="35"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="22"/>
@@ -6483,6 +6814,7 @@
       <c r="D395" s="25"/>
       <c r="E395" s="26"/>
       <c r="F395" s="20"/>
+      <c r="G395" s="35"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="22"/>
@@ -6955,7 +7287,6 @@
       <c r="D454" s="25"/>
       <c r="E454" s="26"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="35"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="22"/>
@@ -6964,6 +7295,7 @@
       <c r="D455" s="25"/>
       <c r="E455" s="26"/>
       <c r="F455" s="20"/>
+      <c r="G455" s="35"/>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="22"/>
@@ -7540,7 +7872,6 @@
       <c r="D527" s="25"/>
       <c r="E527" s="26"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="35"/>
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="22"/>
@@ -7549,6 +7880,7 @@
       <c r="D528" s="25"/>
       <c r="E528" s="26"/>
       <c r="F528" s="20"/>
+      <c r="G528" s="35"/>
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="22"/>
@@ -7934,14 +8266,28 @@
       <c r="E576" s="26"/>
       <c r="F576" s="20"/>
     </row>
+    <row r="577" spans="1:6">
+      <c r="A577" s="22"/>
+      <c r="B577" s="24"/>
+      <c r="C577" s="24"/>
+      <c r="D577" s="25"/>
+      <c r="E577" s="26"/>
+      <c r="F577" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:N125"/>
+  <autoFilter ref="A3:N126">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2021" month="2" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55 K63 I63 G1:G1048576">
       <formula1>$N$11:$N$33</formula1>
     </dataValidation>
   </dataValidations>
@@ -7956,7 +8302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8006,7 +8352,7 @@
       <c r="G2" s="12"/>
       <c r="I2" s="12">
         <f>SUM($D:$D)</f>
-        <v>3370.17</v>
+        <v>3793.46</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>17</v>
@@ -8038,7 +8384,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17">
         <f>SUM($E:$E)</f>
-        <v>659.43000000000006</v>
+        <v>1129.3400000000001</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>23</v>
@@ -8064,7 +8410,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="17">
         <f>I2-I3+F4</f>
-        <v>5909.3799999999992</v>
+        <v>5862.76</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>24</v>
@@ -8346,14 +8692,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="22">
+        <v>44228</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25">
+        <v>300.89</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>6210.27</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="3"/>
@@ -8366,13 +8718,17 @@
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25">
+        <v>48.4</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F16+D17-E17</f>
+        <v>6258.67</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="3"/>
@@ -8385,13 +8741,17 @@
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25">
+        <v>74</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F17+D18-E18</f>
+        <v>6332.67</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="3"/>
@@ -8404,13 +8764,17 @@
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>95</v>
+      </c>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="26">
+        <v>165.36</v>
+      </c>
       <c r="F19" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F18+D19-E19</f>
+        <v>6167.31</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="3"/>
@@ -8423,13 +8787,17 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>89</v>
+      </c>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="26">
+        <v>20</v>
+      </c>
       <c r="F20" s="20">
         <f>F19+D20-E20</f>
-        <v>5909.38</v>
+        <v>6147.31</v>
       </c>
       <c r="H20" s="3"/>
       <c r="L20" s="31"/>
@@ -8439,13 +8807,17 @@
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="26">
+        <v>60</v>
+      </c>
       <c r="F21" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F20+D21-E21</f>
+        <v>6087.31</v>
       </c>
       <c r="H21" s="3"/>
       <c r="L21" s="31"/>
@@ -8455,13 +8827,17 @@
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="26">
+        <v>178.55</v>
+      </c>
       <c r="F22" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F21+D22-E22</f>
+        <v>5908.76</v>
       </c>
       <c r="H22" s="3"/>
       <c r="L22" s="31"/>
@@ -8471,13 +8847,17 @@
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="26">
+        <v>10.9</v>
+      </c>
       <c r="F23" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F22+D23-E23</f>
+        <v>5897.8600000000006</v>
       </c>
       <c r="H23" s="3"/>
       <c r="L23" s="31"/>
@@ -8487,13 +8867,17 @@
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26">
+        <v>15.1</v>
+      </c>
       <c r="F24" s="20">
-        <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <f>F23+D24-E24</f>
+        <v>5882.76</v>
       </c>
       <c r="H24" s="3"/>
       <c r="L24" s="31"/>
@@ -8503,13 +8887,17 @@
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="21">
+        <v>20</v>
+      </c>
       <c r="F25" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H25" s="3"/>
       <c r="L25" s="31"/>
@@ -8525,7 +8913,7 @@
       <c r="E26" s="26"/>
       <c r="F26" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H26" s="3"/>
       <c r="L26" s="31"/>
@@ -8541,7 +8929,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H27" s="3"/>
       <c r="L27" s="31"/>
@@ -8557,7 +8945,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H28" s="3"/>
       <c r="L28" s="31"/>
@@ -8573,7 +8961,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H29" s="3"/>
       <c r="L29" s="31"/>
@@ -8586,7 +8974,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H30" s="3"/>
       <c r="L30" s="31"/>
@@ -8599,7 +8987,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H31" s="3"/>
       <c r="L31" s="31"/>
@@ -8612,7 +9000,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H32" s="3"/>
       <c r="L32" s="31"/>
@@ -8625,7 +9013,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H33" s="3"/>
       <c r="L33" s="31"/>
@@ -8638,7 +9026,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H34" s="3"/>
       <c r="L34" s="31"/>
@@ -8651,7 +9039,7 @@
       <c r="E35" s="26"/>
       <c r="F35" s="20">
         <f>F34+D35-E35</f>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H35" s="3"/>
       <c r="L35" s="31"/>
@@ -8664,7 +9052,7 @@
       <c r="E36" s="26"/>
       <c r="F36" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H36" s="3"/>
       <c r="L36" s="31"/>
@@ -8677,7 +9065,7 @@
       <c r="E37" s="26"/>
       <c r="F37" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H37" s="3"/>
       <c r="L37" s="31"/>
@@ -8690,7 +9078,7 @@
       <c r="E38" s="26"/>
       <c r="F38" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H38" s="3"/>
       <c r="L38" s="31"/>
@@ -8703,7 +9091,7 @@
       <c r="E39" s="25"/>
       <c r="F39" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H39" s="3"/>
       <c r="L39" s="31"/>
@@ -8716,7 +9104,7 @@
       <c r="E40" s="25"/>
       <c r="F40" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H40" s="3"/>
       <c r="L40" s="31"/>
@@ -8729,7 +9117,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H41" s="3"/>
       <c r="L41" s="31"/>
@@ -8742,7 +9130,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H42" s="3"/>
       <c r="L42" s="31"/>
@@ -8755,7 +9143,7 @@
       <c r="E43" s="25"/>
       <c r="F43" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -8767,7 +9155,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -8779,7 +9167,7 @@
       <c r="E45" s="26"/>
       <c r="F45" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -8791,7 +9179,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -8803,7 +9191,7 @@
       <c r="E47" s="26"/>
       <c r="F47" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -8815,7 +9203,7 @@
       <c r="E48" s="26"/>
       <c r="F48" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -8827,7 +9215,7 @@
       <c r="E49" s="26"/>
       <c r="F49" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -8839,7 +9227,7 @@
       <c r="E50" s="26"/>
       <c r="F50" s="20">
         <f>F49+D50-E50</f>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -8851,7 +9239,7 @@
       <c r="E51" s="26"/>
       <c r="F51" s="20">
         <f t="shared" si="0"/>
-        <v>5909.38</v>
+        <v>5862.76</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -13322,177 +13710,187 @@
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="69" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4">
-    <cfRule type="expression" dxfId="68" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="66" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="65" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="64" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="62" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="expression" dxfId="61" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195">
-    <cfRule type="expression" dxfId="60" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196">
-    <cfRule type="expression" dxfId="59" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="expression" dxfId="58" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C358">
-    <cfRule type="expression" dxfId="57" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B367">
-    <cfRule type="expression" dxfId="56" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368">
-    <cfRule type="expression" dxfId="55" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:A219">
-    <cfRule type="expression" dxfId="54" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220:A225">
-    <cfRule type="expression" dxfId="53" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259:A272">
-    <cfRule type="expression" dxfId="52" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304:A334">
-    <cfRule type="expression" dxfId="51" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347:A351">
-    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357:A373">
-    <cfRule type="expression" dxfId="49" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B88">
-    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B139">
-    <cfRule type="expression" dxfId="46" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B144">
-    <cfRule type="expression" dxfId="45" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B185">
-    <cfRule type="expression" dxfId="44" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:B192">
-    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257:B260">
-    <cfRule type="expression" dxfId="42" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D25">
-    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206:D208">
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E23">
-    <cfRule type="expression" dxfId="39" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:E207">
-    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 C59:E59 F51:F143 B121:B123 B293 D193:F194 D195:E196 F195:F207 D292:F292 E208:F208 D198:E200 B205:B206 B84:B86 D358:F358 F360:F445 B366:B367 A74:A174 A181:A214 A216:A217 A244:A258 A292:A303 A352:A356 A30:A59">
-    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E41 C57:E58 C204:D205 C206 C198 C293:F294 C359:F359 C367:E367 C257:F260 C60:E143 C144:F192 B3:E3 B89:B120 B204 A207 B207:C208 B197:E197 B145:B160 A215 B162:B170 B186:B189 A374:A445 B42:E56 A60:A73 A171:B180 B201:E203 A226:A243 B209:F256 B261:F272 A273:F291 A335:A346 B295:F357 B360:E366 B368:E445 A446:F546 B57:B83 B292 B193:B194 B198:B200 B358:B359 B294 A5:F5 E25 E11:E12 C18:C25 A6:E9 B10:E10 B11:C11 A10:A11 A12:C12 B13:C13 B15:C16 B18 A13:A29 B20:B39 A4:D4 F6:F51">
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193:C196 C199:C200">
-    <cfRule type="expression" dxfId="35" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13516,7 +13914,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13566,7 +13964,7 @@
       <c r="G2" s="12"/>
       <c r="I2" s="12">
         <f>SUM($D:$D)</f>
-        <v>97474.99</v>
+        <v>209098.24000000002</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>17</v>
@@ -13598,7 +13996,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="17">
         <f>SUM($E:$E)</f>
-        <v>104438.49</v>
+        <v>249984.26000000004</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>23</v>
@@ -13624,7 +14022,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="17">
         <f>I2-I3+F4</f>
-        <v>56039.519999999997</v>
+        <v>22116.999999999978</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>24</v>
@@ -13931,14 +14329,20 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="22">
+        <v>44228</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25">
+        <v>9081</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>65120.519999999982</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="3"/>
@@ -13951,13 +14355,17 @@
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25">
+        <v>15124.6</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>80245.119999999981</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="3"/>
@@ -13970,13 +14378,17 @@
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25">
+        <v>16824.75</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>97069.869999999981</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="3"/>
@@ -13989,13 +14401,17 @@
     </row>
     <row r="20" spans="1:15" ht="13.5" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25">
+        <v>28988.1</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>126057.96999999997</v>
       </c>
       <c r="H20" s="3"/>
       <c r="L20" s="31"/>
@@ -14005,13 +14421,17 @@
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="D21" s="25">
+        <v>20554.400000000001</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>146612.36999999997</v>
       </c>
       <c r="H21" s="3"/>
       <c r="L21" s="31"/>
@@ -14021,13 +14441,17 @@
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="D22" s="25">
+        <v>9407</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>156019.36999999997</v>
       </c>
       <c r="H22" s="3"/>
       <c r="L22" s="31"/>
@@ -14037,13 +14461,17 @@
     </row>
     <row r="23" spans="1:15" ht="13.5" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="D23" s="25">
+        <v>6058</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>162077.36999999997</v>
       </c>
       <c r="H23" s="3"/>
       <c r="L23" s="31"/>
@@ -14053,13 +14481,15 @@
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>162077.36999999997</v>
       </c>
       <c r="H24" s="3"/>
       <c r="L24" s="31"/>
@@ -14069,13 +14499,17 @@
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>129</v>
+      </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25">
+        <v>5570</v>
+      </c>
       <c r="E25" s="21"/>
       <c r="F25" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>167647.36999999997</v>
       </c>
       <c r="H25" s="3"/>
       <c r="L25" s="31"/>
@@ -14085,13 +14519,17 @@
     </row>
     <row r="26" spans="1:15" ht="13.5" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="26">
+        <v>145043.85</v>
+      </c>
       <c r="F26" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22603.51999999996</v>
       </c>
       <c r="H26" s="3"/>
       <c r="L26" s="31"/>
@@ -14101,13 +14539,17 @@
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>100</v>
+      </c>
       <c r="F27" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22503.51999999996</v>
       </c>
       <c r="H27" s="3"/>
       <c r="L27" s="31"/>
@@ -14117,13 +14559,17 @@
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="C28" s="24"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="26">
+        <v>400</v>
+      </c>
       <c r="F28" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22103.51999999996</v>
       </c>
       <c r="H28" s="3"/>
       <c r="L28" s="31"/>
@@ -14133,26 +14579,34 @@
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="26">
+        <v>1.92</v>
+      </c>
       <c r="F29" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22101.599999999962</v>
       </c>
       <c r="H29" s="3"/>
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>133</v>
+      </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25">
+        <v>15.4</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H30" s="3"/>
       <c r="L30" s="31"/>
@@ -14165,7 +14619,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H31" s="3"/>
       <c r="L31" s="31"/>
@@ -14178,7 +14632,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H32" s="3"/>
       <c r="L32" s="31"/>
@@ -14191,7 +14645,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H33" s="3"/>
       <c r="L33" s="31"/>
@@ -14204,7 +14658,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H34" s="3"/>
       <c r="L34" s="31"/>
@@ -14217,7 +14671,7 @@
       <c r="E35" s="26"/>
       <c r="F35" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H35" s="3"/>
       <c r="L35" s="31"/>
@@ -14230,7 +14684,7 @@
       <c r="E36" s="26"/>
       <c r="F36" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H36" s="3"/>
       <c r="L36" s="31"/>
@@ -14243,7 +14697,7 @@
       <c r="E37" s="26"/>
       <c r="F37" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H37" s="3"/>
       <c r="L37" s="31"/>
@@ -14256,7 +14710,7 @@
       <c r="E38" s="26"/>
       <c r="F38" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H38" s="3"/>
       <c r="L38" s="31"/>
@@ -14269,7 +14723,7 @@
       <c r="E39" s="26"/>
       <c r="F39" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H39" s="3"/>
       <c r="L39" s="31"/>
@@ -14282,7 +14736,7 @@
       <c r="E40" s="26"/>
       <c r="F40" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H40" s="3"/>
       <c r="L40" s="31"/>
@@ -14295,7 +14749,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="20">
         <f>F40+D41-E41</f>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H41" s="3"/>
       <c r="L41" s="31"/>
@@ -14308,7 +14762,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H42" s="3"/>
       <c r="L42" s="31"/>
@@ -14321,7 +14775,7 @@
       <c r="E43" s="26"/>
       <c r="F43" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -14333,7 +14787,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -14345,7 +14799,7 @@
       <c r="E45" s="26"/>
       <c r="F45" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -14357,7 +14811,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -14369,7 +14823,7 @@
       <c r="E47" s="26"/>
       <c r="F47" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -14381,7 +14835,7 @@
       <c r="E48" s="26"/>
       <c r="F48" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -14393,7 +14847,7 @@
       <c r="E49" s="26"/>
       <c r="F49" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H49" s="3"/>
     </row>
@@ -14405,7 +14859,7 @@
       <c r="E50" s="26"/>
       <c r="F50" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -14417,7 +14871,7 @@
       <c r="E51" s="26"/>
       <c r="F51" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H51" s="3"/>
     </row>
@@ -14429,7 +14883,7 @@
       <c r="E52" s="26"/>
       <c r="F52" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H52" s="3"/>
       <c r="L52" s="31"/>
@@ -14442,7 +14896,7 @@
       <c r="E53" s="26"/>
       <c r="F53" s="20">
         <f t="shared" si="0"/>
-        <v>56039.519999999982</v>
+        <v>22116.999999999964</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -18893,177 +19347,177 @@
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4">
-    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195">
-    <cfRule type="expression" dxfId="25" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196">
-    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C358">
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B367">
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368">
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:A219">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220:A225">
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259:A272">
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A304:A334">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A347:A351">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A357:A373">
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B88">
-    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B139">
-    <cfRule type="expression" dxfId="11" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B144">
-    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:B185">
-    <cfRule type="expression" dxfId="9" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:B192">
-    <cfRule type="expression" dxfId="8" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257:B260">
-    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D25">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D206:D208">
-    <cfRule type="expression" dxfId="5" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E24">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:E207">
-    <cfRule type="expression" dxfId="3" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 C59:E59 F51:F143 B121:B123 B293 D193:F194 D195:E196 F195:F207 D292:F292 E208:F208 D198:E200 B205:B206 B84:B86 D358:F358 F360:F445 B366:B367 A74:A174 A181:A214 A216:A217 A244:A258 A292:A303 A352:A356 A30:A59">
-    <cfRule type="expression" dxfId="2" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E41 C57:E58 C204:D205 C206 C198 C293:F294 C359:F359 C367:E367 C257:F260 C60:E143 C144:F192 B3:E3 B89:B120 B204 A207 B207:C208 B197:E197 B145:B160 A215 B162:B170 B186:B189 A374:A445 B42:E56 A60:A73 A171:B180 B201:E203 A226:A243 B209:F256 B261:F272 A273:F291 A335:A346 B295:F357 B360:E366 B368:E445 A446:F546 B57:B83 B292 B193:B194 B198:B200 B358:B359 B294 A5:F5 E25 E11:E12 C18:C25 A6:E9 B10:E10 A10:A11 A12:C12 B13:C13 B15:C16 B18 A13:A23 A25:A29 B20:B39 A4:D4 F6:F53 B11:C11">
-    <cfRule type="expression" dxfId="1" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193:C196 C199:C200">
-    <cfRule type="expression" dxfId="0" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
